--- a/admin/assets/audit_report/Audit Report-2020-2021.xlsx
+++ b/admin/assets/audit_report/Audit Report-2020-2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t xml:space="preserve">Audit Report </t>
   </si>
@@ -104,49 +104,46 @@
     <t>Above 2</t>
   </si>
   <si>
-    <t>some4</t>
-  </si>
-  <si>
-    <t>some3</t>
-  </si>
-  <si>
-    <t>some2</t>
-  </si>
-  <si>
-    <t>oxo.jewellery</t>
-  </si>
-  <si>
-    <t>kurti material</t>
-  </si>
-  <si>
-    <t>leather bag</t>
-  </si>
-  <si>
-    <t>mashru</t>
-  </si>
-  <si>
-    <t>chiffon saree</t>
-  </si>
-  <si>
-    <t>dupatta</t>
-  </si>
-  <si>
-    <t>dress material</t>
-  </si>
-  <si>
-    <t>woolen shawl</t>
-  </si>
-  <si>
-    <t>tasty nts</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">embrodari bag </t>
-  </si>
-  <si>
-    <t>BED SHEET</t>
+    <t>nidhipatill</t>
+  </si>
+  <si>
+    <t>hhhhh</t>
+  </si>
+  <si>
+    <t>jjj</t>
+  </si>
+  <si>
+    <t>mmmn n</t>
+  </si>
+  <si>
+    <t>mmm</t>
+  </si>
+  <si>
+    <t>nidhipatil</t>
+  </si>
+  <si>
+    <t>nidhi</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Rs. 2,110.50</t>
   </si>
 </sst>
 </file>
@@ -509,7 +506,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>122</v>
+        <v>1212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,16 +625,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>1464</v>
+        <v>861</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -652,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1464</v>
+        <v>123</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1464</v>
+        <v>123</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -676,26 +673,36 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
+        <v>369</v>
+      </c>
+      <c r="Y4">
+        <v>861</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5"/>
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>121</v>
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -704,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>1452</v>
+        <v>22</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -728,16 +735,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>1452</v>
+        <v>22</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>1452</v>
+        <v>22</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -757,21 +764,31 @@
       <c r="X5">
         <v>0</v>
       </c>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
+      <c r="Y5">
+        <v>22</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6"/>
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="C6">
-        <v>122</v>
+        <v>1212</v>
       </c>
       <c r="D6">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -780,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>1464</v>
+        <v>1353</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -804,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P6">
-        <v>1464</v>
+        <v>1353</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R6">
-        <v>1464</v>
+        <v>1353</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -833,109 +850,129 @@
       <c r="X6">
         <v>0</v>
       </c>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
+      <c r="Y6">
+        <v>1353</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7"/>
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>121</v>
-      </c>
-      <c r="D7">
-        <v>121</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>12</v>
       </c>
-      <c r="H7">
-        <v>1452</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>12</v>
       </c>
-      <c r="P7">
-        <v>1452</v>
-      </c>
-      <c r="Q7">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>12</v>
       </c>
-      <c r="R7">
-        <v>1452</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8"/>
+      <c r="A8">
+        <v>5</v>
+      </c>
       <c r="B8">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -956,16 +993,16 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="R8">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -985,21 +1022,31 @@
       <c r="X8">
         <v>0</v>
       </c>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9"/>
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1008,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1100</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1032,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1100</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1100</v>
+        <v>12</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1061,33 +1108,43 @@
       <c r="X9">
         <v>0</v>
       </c>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
+      <c r="Y9">
+        <v>12</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10"/>
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1108,16 +1165,16 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>1440</v>
+        <v>176</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R10">
-        <v>1440</v>
+        <v>176</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1137,33 +1194,43 @@
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>176</v>
+      </c>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11"/>
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11">
-        <v>20</v>
+        <v>12345</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G11">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1184,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>3800</v>
+        <v>36</v>
       </c>
       <c r="Q11">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>3800</v>
+        <v>36</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1213,21 +1280,31 @@
       <c r="X11">
         <v>0</v>
       </c>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12"/>
+      <c r="A12">
+        <v>9</v>
+      </c>
       <c r="B12">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>898</v>
+        <v>310</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1236,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="H12">
-        <v>15266</v>
+        <v>27900</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1260,16 +1337,16 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="P12">
-        <v>15266</v>
+        <v>27900</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="R12">
-        <v>15266</v>
+        <v>27900</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1289,21 +1366,31 @@
       <c r="X12">
         <v>0</v>
       </c>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
+      <c r="Y12">
+        <v>27900</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13"/>
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1312,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>1412</v>
+        <v>6200</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1336,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P13">
-        <v>1412</v>
+        <v>6200</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R13">
-        <v>1412</v>
+        <v>6200</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1365,21 +1452,31 @@
       <c r="X13">
         <v>0</v>
       </c>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
+      <c r="Y13">
+        <v>6200</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14"/>
+      <c r="A14">
+        <v>11</v>
+      </c>
       <c r="B14">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>400</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1388,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1412,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P14">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1441,21 +1538,31 @@
       <c r="X14">
         <v>0</v>
       </c>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
+      <c r="Y14">
+        <v>550</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15"/>
+      <c r="A15">
+        <v>12</v>
+      </c>
       <c r="B15">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>6000</v>
+        <v>110</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1464,16 +1571,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1488,16 +1595,16 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="Q15">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1517,21 +1624,31 @@
       <c r="X15">
         <v>0</v>
       </c>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
+      <c r="Y15">
+        <v>550</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16"/>
+      <c r="A16">
+        <v>13</v>
+      </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>77.5</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1540,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H16">
-        <v>1000</v>
+        <v>775</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1564,16 +1681,16 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P16">
-        <v>1000</v>
+        <v>775</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R16">
-        <v>1000</v>
+        <v>775</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1593,21 +1710,31 @@
       <c r="X16">
         <v>0</v>
       </c>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
+      <c r="Y16">
+        <v>775</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17"/>
+      <c r="A17">
+        <v>14</v>
+      </c>
       <c r="B17">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1616,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1640,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P17">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R17">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1669,21 +1796,31 @@
       <c r="X17">
         <v>0</v>
       </c>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
+      <c r="Y17">
+        <v>250</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18"/>
+      <c r="A18">
+        <v>15</v>
+      </c>
       <c r="B18">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1695,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="H18">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1719,13 +1856,13 @@
         <v>5</v>
       </c>
       <c r="P18">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1745,18 +1882,28 @@
       <c r="X18">
         <v>0</v>
       </c>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
+      <c r="Y18">
+        <v>500</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19"/>
+      <c r="A19">
+        <v>16</v>
+      </c>
       <c r="B19">
-        <v>12</v>
+        <v>11111</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>100</v>
@@ -1768,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1780,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1792,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R19">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1821,18 +1968,28 @@
       <c r="X19">
         <v>0</v>
       </c>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
+      <c r="Y19">
+        <v>1000</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20"/>
+      <c r="A20">
+        <v>17</v>
+      </c>
       <c r="B20">
-        <v>1</v>
+        <v>11111</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>100</v>
@@ -1844,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>8400</v>
+        <v>1000</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1856,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1868,16 +2025,16 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="P20">
-        <v>8400</v>
+        <v>1000</v>
       </c>
       <c r="Q20">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="R20">
-        <v>8400</v>
+        <v>1000</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -1897,18 +2054,28 @@
       <c r="X20">
         <v>0</v>
       </c>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
+      <c r="Y20">
+        <v>1000</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21"/>
+      <c r="A21">
+        <v>18</v>
+      </c>
       <c r="B21">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
+        <v>11111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -1932,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1968,23 +2135,33 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>300</v>
-      </c>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1000</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22"/>
+      <c r="A22">
+        <v>19</v>
+      </c>
       <c r="B22">
-        <v>1</v>
+        <v>11111</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -1996,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2008,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2020,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="P22">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="Q22">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="R22">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2044,26 +2221,36 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>100</v>
-      </c>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1000</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23"/>
+      <c r="A23">
+        <v>20</v>
+      </c>
       <c r="B23">
-        <v>15</v>
+        <v>33333</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2072,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2084,51 +2271,394 @@
         <v>0</v>
       </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>500</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>500</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>500</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>22222</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>150</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>150</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>150</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>150</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>33333</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>500</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>500</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <v>400</v>
+      </c>
+      <c r="Y25">
+        <v>500</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>500</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="L23">
-        <v>2000</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1000</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
+      <c r="L26">
+        <v>200</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>300</v>
+      </c>
+      <c r="Y26">
+        <v>500</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>246</v>
+      </c>
+      <c r="G27" s="1">
+        <v>224</v>
+      </c>
+      <c r="H27" s="1">
+        <v>44623</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1165</v>
+      </c>
+      <c r="K27" s="1">
+        <v>7</v>
+      </c>
+      <c r="L27" s="1">
+        <v>700</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>218</v>
+      </c>
+      <c r="P27" s="1">
+        <v>43131</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>218</v>
+      </c>
+      <c r="R27" s="1">
+        <v>43131</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>10</v>
+      </c>
+      <c r="X27" s="1">
+        <v>1069</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>44623</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/assets/audit_report/Audit Report-2020-2021.xlsx
+++ b/admin/assets/audit_report/Audit Report-2020-2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t xml:space="preserve">Audit Report </t>
   </si>
@@ -104,46 +104,85 @@
     <t>Above 2</t>
   </si>
   <si>
-    <t>nidhipatill</t>
-  </si>
-  <si>
-    <t>hhhhh</t>
-  </si>
-  <si>
-    <t>jjj</t>
-  </si>
-  <si>
-    <t>mmmn n</t>
-  </si>
-  <si>
-    <t>mmm</t>
-  </si>
-  <si>
-    <t>nidhipatil</t>
-  </si>
-  <si>
-    <t>nidhi</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>Rs. 2,110.50</t>
+    <t>New Bags</t>
+  </si>
+  <si>
+    <t>New SHawl</t>
+  </si>
+  <si>
+    <t>Key CHain</t>
+  </si>
+  <si>
+    <t>some2</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>tasty</t>
+  </si>
+  <si>
+    <t>tasty nuts</t>
+  </si>
+  <si>
+    <t>Test Acrylic</t>
+  </si>
+  <si>
+    <t>Test Product</t>
+  </si>
+  <si>
+    <t>some4</t>
+  </si>
+  <si>
+    <t>some3</t>
+  </si>
+  <si>
+    <t>oxo.jewellery</t>
+  </si>
+  <si>
+    <t>kurti material</t>
+  </si>
+  <si>
+    <t>leather bag</t>
+  </si>
+  <si>
+    <t>mashru</t>
+  </si>
+  <si>
+    <t>chiffon saree</t>
+  </si>
+  <si>
+    <t>dupatta</t>
+  </si>
+  <si>
+    <t>dress material</t>
+  </si>
+  <si>
+    <t>woolen shawl</t>
+  </si>
+  <si>
+    <t>tasty nts</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>shawl</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">embrodari bag </t>
+  </si>
+  <si>
+    <t>BED SHEET</t>
+  </si>
+  <si>
+    <t>Double Ikat Saree</t>
+  </si>
+  <si>
+    <t>Rs. 112,699.00</t>
   </si>
 </sst>
 </file>
@@ -506,7 +545,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,61 +649,57 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1212</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
       </c>
       <c r="D4">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>861</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>615</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K4"/>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
+      <c r="M4"/>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P4">
-        <v>123</v>
+        <v>4000</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R4">
-        <v>123</v>
+        <v>2000</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -673,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>369</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>861</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -688,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -696,25 +731,25 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -722,29 +757,25 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
+      <c r="K5"/>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
+      <c r="M5"/>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P5">
-        <v>22</v>
+        <v>2250</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="R5">
-        <v>22</v>
+        <v>2250</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -765,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -782,13 +813,13 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>212</v>
-      </c>
-      <c r="C6">
-        <v>1212</v>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,40 +828,36 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>1353</v>
+        <v>1000</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="K6"/>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
+      <c r="M6"/>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>1353</v>
+        <v>500</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>1353</v>
+        <v>500</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -851,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>1353</v>
+        <v>500</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -868,55 +895,51 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
+        <v>132</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>12</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
       <c r="P7">
+        <v>132</v>
+      </c>
+      <c r="Q7">
         <v>12</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
       <c r="R7">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -946,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -954,25 +977,25 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -980,29 +1003,25 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
+      <c r="K8"/>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
+      <c r="M8"/>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>22</v>
+        <v>550</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>22</v>
+        <v>550</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1023,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1032,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1040,13 +1059,13 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1055,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1066,29 +1085,25 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
+      <c r="K9"/>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
+      <c r="M9"/>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R9">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1109,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1126,25 +1141,25 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1152,29 +1167,25 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
+      <c r="K10"/>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
+      <c r="M10"/>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P10">
-        <v>176</v>
+        <v>2750</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="R10">
-        <v>176</v>
+        <v>2750</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1195,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1204,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1212,25 +1223,25 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>12345</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1238,29 +1249,25 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
+      <c r="K11"/>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
+      <c r="M11"/>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P11">
-        <v>36</v>
+        <v>2400</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="R11">
-        <v>36</v>
+        <v>2400</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1281,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1290,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1298,13 +1305,13 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1313,40 +1320,40 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="H12">
-        <v>27900</v>
+        <v>75000</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O12">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="P12">
-        <v>27900</v>
+        <v>71500</v>
       </c>
       <c r="Q12">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="R12">
-        <v>27900</v>
+        <v>71500</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1361,16 +1368,16 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Y12">
-        <v>27900</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>71500</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1384,13 +1391,13 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1399,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>6200</v>
+        <v>50000</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1410,29 +1417,25 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
+      <c r="K13"/>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
+      <c r="M13"/>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="P13">
-        <v>6200</v>
+        <v>50500</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="R13">
-        <v>6200</v>
+        <v>50500</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1453,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>50500</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -1470,13 +1473,13 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>122</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1485,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>550</v>
+        <v>1464</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1496,29 +1499,25 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
+      <c r="K14"/>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
+      <c r="M14"/>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P14">
-        <v>550</v>
+        <v>1464</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R14">
-        <v>550</v>
+        <v>1464</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1539,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>550</v>
+        <v>1464</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -1556,13 +1555,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>121</v>
       </c>
       <c r="D15">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1571,40 +1570,36 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H15">
-        <v>550</v>
+        <v>1452</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>550</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K15"/>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
+      <c r="M15"/>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P15">
-        <v>550</v>
+        <v>1452</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R15">
-        <v>550</v>
+        <v>1452</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1625,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>550</v>
+        <v>1452</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -1642,13 +1637,13 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>122</v>
       </c>
       <c r="D16">
-        <v>77.5</v>
+        <v>122</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1657,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H16">
-        <v>775</v>
+        <v>1464</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1668,29 +1663,25 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
+      <c r="K16"/>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
+      <c r="M16"/>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P16">
-        <v>775</v>
+        <v>1464</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R16">
-        <v>775</v>
+        <v>1464</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1711,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>775</v>
+        <v>1464</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -1728,13 +1719,13 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>222</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>121</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1743,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H17">
-        <v>250</v>
+        <v>1452</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1754,29 +1745,25 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
+      <c r="K17"/>
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
+      <c r="M17"/>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P17">
-        <v>250</v>
+        <v>1452</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R17">
-        <v>250</v>
+        <v>1452</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1797,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>250</v>
+        <v>1452</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -1814,13 +1801,13 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1829,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H18">
-        <v>500</v>
+        <v>165</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1840,29 +1827,25 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
+      <c r="K18"/>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
+      <c r="M18"/>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P18">
-        <v>500</v>
+        <v>165</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R18">
-        <v>500</v>
+        <v>165</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1883,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>500</v>
+        <v>165</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -1900,13 +1883,13 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>11111</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1918,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="H19">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1926,15 +1909,11 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
+      <c r="K19"/>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
+      <c r="M19"/>
       <c r="N19">
         <v>0</v>
       </c>
@@ -1942,13 +1921,13 @@
         <v>10</v>
       </c>
       <c r="P19">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q19">
         <v>10</v>
       </c>
       <c r="R19">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1969,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -1986,13 +1965,13 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>11111</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2001,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>1000</v>
+        <v>1440</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2012,29 +1991,25 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
+      <c r="K20"/>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
+      <c r="M20"/>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P20">
-        <v>1000</v>
+        <v>1440</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R20">
-        <v>1000</v>
+        <v>1440</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2055,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>1000</v>
+        <v>1440</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2072,10 +2047,10 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>11111</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -2087,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>1000</v>
+        <v>3800</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2098,29 +2073,25 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
+      <c r="K21"/>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
+      <c r="M21"/>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="P21">
-        <v>1000</v>
+        <v>3800</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="R21">
-        <v>1000</v>
+        <v>3800</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2141,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>1000</v>
+        <v>3800</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2158,13 +2129,13 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>11111</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>898</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2173,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>1000</v>
+        <v>15266</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2184,29 +2155,25 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
+      <c r="K22"/>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
+      <c r="M22"/>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P22">
-        <v>1000</v>
+        <v>14368</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R22">
-        <v>1000</v>
+        <v>14368</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2227,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>1000</v>
+        <v>14368</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2244,13 +2211,13 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>33333</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2259,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>500</v>
+        <v>1412</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2270,29 +2237,25 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
+      <c r="K23"/>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
+      <c r="M23"/>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>500</v>
+        <v>1412</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R23">
-        <v>500</v>
+        <v>1412</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2313,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>500</v>
+        <v>1412</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2330,13 +2293,13 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>22222</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2348,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2356,15 +2319,11 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
+      <c r="K24"/>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
+      <c r="M24"/>
       <c r="N24">
         <v>0</v>
       </c>
@@ -2372,13 +2331,13 @@
         <v>3</v>
       </c>
       <c r="P24">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="Q24">
         <v>3</v>
       </c>
       <c r="R24">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2399,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -2416,13 +2375,13 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>33333</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2431,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H25">
-        <v>500</v>
+        <v>300000</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2442,29 +2401,25 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
+      <c r="K25"/>
       <c r="L25">
-        <v>500</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M25"/>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2479,13 +2434,13 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>500</v>
+        <v>300000</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -2502,162 +2457,998 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1000</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1000</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1000</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1000</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <v>500</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>5000</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>500</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+      <c r="P27">
+        <v>4500</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+      <c r="R27">
+        <v>4500</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>4500</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28">
+        <v>1500</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>7500</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>4500</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>3000</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>3000</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>3000</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29">
         <v>100</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>1500</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+      <c r="L29">
+        <v>800</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>200</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>200</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>200</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
         <v>5</v>
       </c>
-      <c r="H26">
+      <c r="F30">
         <v>500</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>2</v>
       </c>
-      <c r="L26">
+      <c r="L30">
         <v>200</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
+      <c r="M30"/>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>-1</v>
+      </c>
+      <c r="P30">
+        <v>-100</v>
+      </c>
+      <c r="Q30">
+        <v>-1</v>
+      </c>
+      <c r="R30">
+        <v>-100</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>-100</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>3600</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>3</v>
       </c>
-      <c r="X26">
+      <c r="L31">
+        <v>900</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>-1</v>
+      </c>
+      <c r="P31">
+        <v>-300</v>
+      </c>
+      <c r="Q31">
+        <v>-1</v>
+      </c>
+      <c r="R31">
+        <v>-300</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>600</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>-300</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>10000</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>28</v>
+      </c>
+      <c r="L32">
+        <v>2800</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>68</v>
+      </c>
+      <c r="P32">
+        <v>6800</v>
+      </c>
+      <c r="Q32">
+        <v>68</v>
+      </c>
+      <c r="R32">
+        <v>6800</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>6800</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>1200</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>900</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
         <v>300</v>
       </c>
-      <c r="Y26">
-        <v>500</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="D27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>300</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <v>300</v>
+      </c>
+      <c r="Y33">
+        <v>300</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>10</v>
       </c>
-      <c r="F27" s="1">
-        <v>246</v>
-      </c>
-      <c r="G27" s="1">
-        <v>224</v>
-      </c>
-      <c r="H27" s="1">
-        <v>44623</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="H34">
+        <v>1000</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>4.5</v>
+      </c>
+      <c r="L34">
+        <v>450</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34">
+        <v>50</v>
+      </c>
+      <c r="Q34">
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <v>50</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>100</v>
+      </c>
+      <c r="Y34">
+        <v>50</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>1000</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>5000</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>6000</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1000</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>97500</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>292500</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>2</v>
+      </c>
+      <c r="X36">
+        <v>195000</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="D37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="1">
+        <v>67</v>
+      </c>
+      <c r="F37" s="1">
+        <v>302982</v>
+      </c>
+      <c r="G37" s="1">
+        <v>675</v>
+      </c>
+      <c r="H37" s="1">
+        <v>495315</v>
+      </c>
+      <c r="I37" s="1">
         <v>10</v>
       </c>
-      <c r="J27" s="1">
-        <v>1165</v>
-      </c>
-      <c r="K27" s="1">
-        <v>7</v>
-      </c>
-      <c r="L27" s="1">
-        <v>700</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1">
-        <v>218</v>
-      </c>
-      <c r="P27" s="1">
-        <v>43131</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>218</v>
-      </c>
-      <c r="R27" s="1">
-        <v>43131</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1">
-        <v>0</v>
-      </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="1">
+      <c r="J37" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K37" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>22050</v>
+      </c>
+      <c r="M37" s="1">
+        <v>3</v>
+      </c>
+      <c r="N37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="O37" s="1">
+        <v>635.5</v>
+      </c>
+      <c r="P37" s="1">
+        <v>480549</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>625.5</v>
+      </c>
+      <c r="R37" s="1">
+        <v>478549</v>
+      </c>
+      <c r="S37" s="1">
         <v>10</v>
       </c>
-      <c r="X27" s="1">
-        <v>1069</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>44623</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>246</v>
+      <c r="T37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>28</v>
+      </c>
+      <c r="X37" s="1">
+        <v>206000</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>352567</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>123850</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>4132</v>
       </c>
     </row>
   </sheetData>
